--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2001.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2001.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.003*"foreign" + 0.003*"exchange" + 0.002*"currency" + 0.002*"control" + 0.002*"account" + 0.002*"yes" + 0.002*"abroad" + 0.002*"resident" + 0.002*"import" + 0.002*"may"</t>
-  </si>
-  <si>
-    <t>0.013*"exchange" + 0.011*"import" + 0.011*"control" + 0.010*"foreign" + 0.008*"resident" + 0.008*"payment" + 0.008*"abroad" + 0.007*"currency" + 0.007*"yes" + 0.007*"account"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.001*"import" + 0.001*"control" + 0.001*"account" + 0.001*"payment" + 0.001*"export" + 0.001*"resident" + 0.001*"bank" + 0.001*"transaction"</t>
-  </si>
-  <si>
-    <t>0.006*"foreign" + 0.005*"exchange" + 0.005*"yes" + 0.004*"import" + 0.004*"payment" + 0.004*"currency" + 0.004*"resident" + 0.004*"control" + 0.004*"may" + 0.003*"account"</t>
-  </si>
-  <si>
-    <t>0.021*"foreign" + 0.020*"exchange" + 0.014*"account" + 0.014*"currency" + 0.014*"import" + 0.014*"control" + 0.014*"yes" + 0.012*"resident" + 0.010*"bank" + 0.010*"payment"</t>
+    <t>0.066*"foreign" + 0.047*"account" + 0.038*"exchange" + 0.034*"import" + 0.033*"currency" + 0.028*"bank" + 0.025*"may" + 0.016*"domestic" + 0.012*"hold" + 0.012*"abroad"</t>
+  </si>
+  <si>
+    <t>0.029*"ing" + 0.018*"im" + 0.015*"le" + 0.014*"ly" + 0.014*"t" + 0.013*"country" + 0.011*"ion" + 0.010*"th" + 0.009*"ia" + 0.008*"redistribution"</t>
+  </si>
+  <si>
+    <t>0.050*"export" + 0.039*"fund" + 0.032*"monetary" + 0.030*"international" + 0.021*"proceeds" + 0.020*"require" + 0.019*"approval" + 0.018*"requirement" + 0.016*"import" + 0.014*"requ"</t>
+  </si>
+  <si>
+    <t>0.046*"control" + 0.042*"resident" + 0.038*"nonresident" + 0.033*"investment" + 0.032*"abroad" + 0.031*"capital" + 0.026*"security" + 0.025*"credit" + 0.025*"transaction" + 0.024*"purchase"</t>
+  </si>
+  <si>
+    <t>0.066*"exchange" + 0.051*"yes" + 0.041*"rate" + 0.040*"arrangement" + 0.037*"payment" + 0.022*"currency" + 0.013*"peg" + 0.013*"control" + 0.012*"market" + 0.011*"use"</t>
   </si>
 </sst>
 </file>
